--- a/1_Dataset_creation/Statistics.xlsx
+++ b/1_Dataset_creation/Statistics.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra\OneDrive - Universidade de Lisboa\PhD_Research\2_Chapter2_Flavobacteriaceae\flavobacteriaceae_project\1_Dataset_creation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E504515-A942-4F58-B54D-589C370F90F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
     <sheet name="Statistics_per_quality" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -119,8 +125,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -183,11 +192,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -229,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,9 +278,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,6 +330,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,14 +523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -559,13 +612,13 @@
         <v>0.84</v>
       </c>
       <c r="D2">
-        <v>9.970000000000001</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E2">
         <v>91.84</v>
       </c>
       <c r="F2">
-        <v>81.20999999999999</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G2">
         <v>105.42</v>
@@ -622,7 +675,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -645,7 +698,7 @@
         <v>216.69</v>
       </c>
       <c r="H3">
-        <v>1101861.86</v>
+        <v>1101861.8600000001</v>
       </c>
       <c r="I3">
         <v>1102898.78</v>
@@ -684,7 +737,7 @@
         <v>1334452.79</v>
       </c>
       <c r="U3">
-        <v>9.130000000000001</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="V3">
         <v>31.95</v>
@@ -696,7 +749,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -764,18 +817,18 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <v>98.34999999999999</v>
+        <v>98.35</v>
       </c>
       <c r="C5">
         <v>0.09</v>
@@ -784,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>91.31999999999999</v>
+        <v>91.32</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -844,7 +897,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -918,7 +971,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -983,7 +1036,7 @@
         <v>18</v>
       </c>
       <c r="V7">
-        <v>99.15000000000001</v>
+        <v>99.15</v>
       </c>
       <c r="W7">
         <v>0.37</v>
@@ -992,7 +1045,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1060,7 +1113,7 @@
         <v>100</v>
       </c>
       <c r="W8">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X8">
         <v>0.17</v>
@@ -1072,14 +1125,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1090,8 +1146,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1107,8 +1163,8 @@
         <v>83.06</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1122,8 +1178,8 @@
         <v>50.31</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1137,8 +1193,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1154,8 +1210,8 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1169,8 +1225,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1184,8 +1240,8 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1201,8 +1257,8 @@
         <v>50.51</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1216,8 +1272,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1231,8 +1287,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1242,19 +1298,19 @@
         <v>95.45</v>
       </c>
       <c r="D11">
-        <v>94.84999999999999</v>
+        <v>94.85</v>
       </c>
       <c r="E11">
-        <v>74.70999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
+        <v>74.709999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C12">
-        <v>71.56999999999999</v>
+        <v>71.569999999999993</v>
       </c>
       <c r="D12">
         <v>50.14</v>
@@ -1263,8 +1319,8 @@
         <v>50.01</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1278,15 +1334,15 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14">
-        <v>137.61</v>
+        <v>137.61000000000001</v>
       </c>
       <c r="D14">
         <v>52.48</v>
@@ -1295,8 +1351,8 @@
         <v>176.22</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1310,8 +1366,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1325,25 +1381,25 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17">
-        <v>150.83</v>
+        <v>150.83000000000001</v>
       </c>
       <c r="D17">
-        <v>66.15000000000001</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="E17">
         <v>259.26</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1357,8 +1413,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1372,8 +1428,8 @@
         <v>5612</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1386,11 +1442,11 @@
         <v>3780489.39</v>
       </c>
       <c r="E20">
-        <v>2591461.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1"/>
+        <v>2591461.9900000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1404,8 +1460,8 @@
         <v>569462</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1419,8 +1475,8 @@
         <v>7026888</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1436,8 +1492,8 @@
         <v>2577372.46</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1451,8 +1507,8 @@
         <v>569462</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,8 +1522,8 @@
         <v>6570299</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1483,8 +1539,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1498,8 +1554,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1507,21 +1563,21 @@
         <v>3.18</v>
       </c>
       <c r="D28">
-        <v>8.130000000000001</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="E28">
         <v>11.48</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C29">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D29">
         <v>7.89</v>
@@ -1530,8 +1586,8 @@
         <v>41.53</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,8 +1601,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1560,8 +1616,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1577,8 +1633,8 @@
         <v>408224.3</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1648,8 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1607,8 +1663,8 @@
         <v>5602501</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1618,14 +1674,14 @@
         <v>21</v>
       </c>
       <c r="D35">
-        <v>9.630000000000001</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="E35">
         <v>53.14</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
@@ -1639,8 +1695,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>29</v>
       </c>
@@ -1654,25 +1710,25 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C38">
-        <v>70515.60000000001</v>
+        <v>70515.600000000006</v>
       </c>
       <c r="D38">
-        <v>1106056.1</v>
+        <v>1106056.1000000001</v>
       </c>
       <c r="E38">
         <v>392589.6</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1686,8 +1742,8 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,15 +1757,15 @@
         <v>5602501</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C41">
-        <v>64.40000000000001</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="D41">
         <v>24.34</v>
@@ -1718,8 +1774,8 @@
         <v>123.04</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>25</v>
       </c>
@@ -1733,8 +1789,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
@@ -1748,8 +1804,8 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1765,8 +1821,8 @@
         <v>314708.99</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>25</v>
       </c>
@@ -1780,8 +1836,8 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
@@ -1795,8 +1851,8 @@
         <v>5602501</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1809,11 +1865,11 @@
         <v>30.27</v>
       </c>
       <c r="E47">
-        <v>162.42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1"/>
+        <v>162.41999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>25</v>
       </c>
@@ -1827,8 +1883,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
@@ -1842,8 +1898,8 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1859,8 +1915,8 @@
         <v>305125.33</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>25</v>
       </c>
@@ -1874,8 +1930,8 @@
         <v>518</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>29</v>
       </c>
@@ -1889,8 +1945,8 @@
         <v>5602501</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1906,8 +1962,8 @@
         <v>505371.64</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
         <v>25</v>
       </c>
@@ -1921,8 +1977,8 @@
         <v>11420</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
         <v>29</v>
       </c>
@@ -1936,8 +1992,8 @@
         <v>5602501</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1953,8 +2009,8 @@
         <v>485212.41</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>25</v>
       </c>
@@ -1968,8 +2024,8 @@
         <v>9123</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>29</v>
       </c>
@@ -1983,8 +2039,8 @@
         <v>5602501</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2000,8 +2056,8 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
         <v>25</v>
       </c>
@@ -2015,8 +2071,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
         <v>29</v>
       </c>
@@ -2030,8 +2086,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2047,8 +2103,8 @@
         <v>39.07</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2118,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>29</v>
       </c>
@@ -2077,8 +2133,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2094,23 +2150,23 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C66">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D66">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E66">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>29</v>
       </c>
@@ -2118,14 +2174,14 @@
         <v>0.47</v>
       </c>
       <c r="D67">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E67">
         <v>0.53</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2141,8 +2197,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>25</v>
       </c>
@@ -2156,13 +2212,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1"/>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C70">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D70">
         <v>0.17</v>
@@ -2173,29 +2229,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1_Dataset_creation/Statistics.xlsx
+++ b/1_Dataset_creation/Statistics.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra\OneDrive - Universidade de Lisboa\PhD_Research\2_Chapter2_Flavobacteriaceae\flavobacteriaceae_project\1_Dataset_creation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E504515-A942-4F58-B54D-589C370F90F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
     <sheet name="Statistics_per_quality" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -125,8 +119,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,11 +172,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -192,19 +183,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -246,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,27 +261,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,24 +295,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,14 +470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,72 +548,72 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2">
-        <v>96.06</v>
+        <v>96.06999999999999</v>
       </c>
       <c r="C2">
         <v>0.84</v>
       </c>
       <c r="D2">
-        <v>9.9700000000000006</v>
+        <v>9.98</v>
       </c>
       <c r="E2">
-        <v>91.84</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="F2">
-        <v>81.209999999999994</v>
+        <v>81.36</v>
       </c>
       <c r="G2">
-        <v>105.42</v>
+        <v>105.55</v>
       </c>
       <c r="H2">
-        <v>3579242.27</v>
+        <v>3578576.36</v>
       </c>
       <c r="I2">
-        <v>3574865.26</v>
+        <v>3574200.99</v>
       </c>
       <c r="J2">
         <v>0.16</v>
       </c>
       <c r="K2">
-        <v>14.35</v>
+        <v>14.38</v>
       </c>
       <c r="L2">
-        <v>953766.02</v>
+        <v>953412.35</v>
       </c>
       <c r="M2">
-        <v>17.59</v>
+        <v>17.61</v>
       </c>
       <c r="N2">
-        <v>877389.92</v>
+        <v>877064.74</v>
       </c>
       <c r="O2">
-        <v>44.03</v>
+        <v>44.14</v>
       </c>
       <c r="P2">
-        <v>732450.88</v>
+        <v>732178.26</v>
       </c>
       <c r="Q2">
-        <v>55.04</v>
+        <v>55.14</v>
       </c>
       <c r="R2">
-        <v>676882.6</v>
+        <v>676630.7</v>
       </c>
       <c r="S2">
-        <v>1176468.28</v>
+        <v>1176042.33</v>
       </c>
       <c r="T2">
-        <v>1095297.83</v>
+        <v>1094902.15</v>
       </c>
       <c r="U2">
         <v>11.48</v>
       </c>
       <c r="V2">
-        <v>78.25</v>
+        <v>78.22</v>
       </c>
       <c r="W2">
         <v>0.36</v>
@@ -675,7 +622,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -686,61 +633,61 @@
         <v>1.18</v>
       </c>
       <c r="D3">
-        <v>23.22</v>
+        <v>23.27</v>
       </c>
       <c r="E3">
-        <v>11.4</v>
+        <v>11.39</v>
       </c>
       <c r="F3">
-        <v>132.31</v>
+        <v>132.49</v>
       </c>
       <c r="G3">
-        <v>216.69</v>
+        <v>216.76</v>
       </c>
       <c r="H3">
-        <v>1101861.8600000001</v>
+        <v>1102195.71</v>
       </c>
       <c r="I3">
-        <v>1102898.78</v>
+        <v>1103229.29</v>
       </c>
       <c r="J3">
         <v>0.66</v>
       </c>
       <c r="K3">
-        <v>30.11</v>
+        <v>30.13</v>
       </c>
       <c r="L3">
-        <v>1430723.65</v>
+        <v>1430573.91</v>
       </c>
       <c r="M3">
         <v>42.49</v>
       </c>
       <c r="N3">
-        <v>1395113.7</v>
+        <v>1394955.02</v>
       </c>
       <c r="O3">
-        <v>90.91</v>
+        <v>91.05</v>
       </c>
       <c r="P3">
-        <v>1445229.1</v>
+        <v>1445028.39</v>
       </c>
       <c r="Q3">
-        <v>134.16</v>
+        <v>134.23</v>
       </c>
       <c r="R3">
-        <v>1408258.08</v>
+        <v>1408055.72</v>
       </c>
       <c r="S3">
-        <v>1364500.6</v>
+        <v>1364424.27</v>
       </c>
       <c r="T3">
-        <v>1334452.79</v>
+        <v>1334361.1</v>
       </c>
       <c r="U3">
-        <v>9.1300000000000008</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="V3">
-        <v>31.95</v>
+        <v>31.98</v>
       </c>
       <c r="W3">
         <v>0.04</v>
@@ -749,7 +696,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -817,18 +764,18 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <v>98.35</v>
+        <v>98.34999999999999</v>
       </c>
       <c r="C5">
         <v>0.09</v>
@@ -837,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>91.32</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -846,10 +793,10 @@
         <v>17</v>
       </c>
       <c r="H5">
-        <v>2805386.25</v>
+        <v>2805039</v>
       </c>
       <c r="I5">
-        <v>2803262.5</v>
+        <v>2800951</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -858,37 +805,37 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>84056</v>
+        <v>83912</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5">
-        <v>76662</v>
+        <v>76644</v>
       </c>
       <c r="O5">
         <v>6</v>
       </c>
       <c r="P5">
-        <v>21232.5</v>
+        <v>21204</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
       <c r="R5">
-        <v>19938</v>
+        <v>19917</v>
       </c>
       <c r="S5">
-        <v>233317</v>
+        <v>233227</v>
       </c>
       <c r="T5">
-        <v>219077.75</v>
+        <v>218957</v>
       </c>
       <c r="U5">
         <v>2</v>
       </c>
       <c r="V5">
-        <v>71.36</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="W5">
         <v>0.33</v>
@@ -897,7 +844,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -920,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="H6">
-        <v>3545543</v>
+        <v>3545181</v>
       </c>
       <c r="I6">
-        <v>3543446.5</v>
+        <v>3542912</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -938,25 +885,25 @@
         <v>5</v>
       </c>
       <c r="N6">
-        <v>259833</v>
+        <v>259832</v>
       </c>
       <c r="O6">
         <v>14</v>
       </c>
       <c r="P6">
-        <v>85478</v>
+        <v>85343</v>
       </c>
       <c r="Q6">
         <v>15</v>
       </c>
       <c r="R6">
-        <v>75395.5</v>
+        <v>75351</v>
       </c>
       <c r="S6">
-        <v>635417</v>
+        <v>634411</v>
       </c>
       <c r="T6">
-        <v>579071</v>
+        <v>578043</v>
       </c>
       <c r="U6">
         <v>11</v>
@@ -971,7 +918,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -994,10 +941,10 @@
         <v>101</v>
       </c>
       <c r="H7">
-        <v>4277908</v>
+        <v>4276845</v>
       </c>
       <c r="I7">
-        <v>4275901.5</v>
+        <v>4275762</v>
       </c>
       <c r="J7">
         <v>0.02</v>
@@ -1006,37 +953,37 @@
         <v>12</v>
       </c>
       <c r="L7">
-        <v>822818.75</v>
+        <v>821621</v>
       </c>
       <c r="M7">
         <v>13</v>
       </c>
       <c r="N7">
-        <v>680443.5</v>
+        <v>679776</v>
       </c>
       <c r="O7">
         <v>39</v>
       </c>
       <c r="P7">
-        <v>235485.25</v>
+        <v>235479</v>
       </c>
       <c r="Q7">
         <v>42</v>
       </c>
       <c r="R7">
-        <v>188814</v>
+        <v>188725</v>
       </c>
       <c r="S7">
-        <v>1483307.5</v>
+        <v>1481894</v>
       </c>
       <c r="T7">
-        <v>1222603.25</v>
+        <v>1222563</v>
       </c>
       <c r="U7">
         <v>18</v>
       </c>
       <c r="V7">
-        <v>99.15</v>
+        <v>99.15000000000001</v>
       </c>
       <c r="W7">
         <v>0.37</v>
@@ -1045,7 +992,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1113,7 +1060,7 @@
         <v>100</v>
       </c>
       <c r="W8">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="X8">
         <v>0.17</v>
@@ -1125,17 +1072,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1146,25 +1090,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C2">
-        <v>98.42</v>
+        <v>99.27</v>
       </c>
       <c r="D2">
-        <v>98.41</v>
+        <v>93.03</v>
       </c>
       <c r="E2">
-        <v>83.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+        <v>83.06999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1178,8 +1122,8 @@
         <v>50.31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1193,25 +1137,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C5">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.71</v>
+        <v>1.93</v>
       </c>
       <c r="E5">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1225,8 +1169,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1240,25 +1184,25 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D8">
-        <v>3.06</v>
+        <v>18.88</v>
       </c>
       <c r="E8">
-        <v>50.51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1272,8 +1216,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1287,30 +1231,30 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11">
-        <v>95.45</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="D11">
-        <v>94.85</v>
+        <v>83.39</v>
       </c>
       <c r="E11">
-        <v>74.709999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+        <v>74.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C12">
-        <v>71.569999999999993</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="D12">
         <v>50.14</v>
@@ -1319,8 +1263,8 @@
         <v>50.01</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1334,30 +1278,30 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14">
-        <v>137.61000000000001</v>
+        <v>47</v>
       </c>
       <c r="D14">
-        <v>52.48</v>
+        <v>171.02</v>
       </c>
       <c r="E14">
-        <v>176.22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+        <v>176.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1366,8 +1310,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1381,30 +1325,30 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17">
-        <v>150.83000000000001</v>
+        <v>52.56</v>
       </c>
       <c r="D17">
-        <v>66.150000000000006</v>
+        <v>234.81</v>
       </c>
       <c r="E17">
-        <v>259.26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+        <v>260.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1413,8 +1357,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1428,25 +1372,25 @@
         <v>5612</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3609424.61</v>
+        <v>3798407.46</v>
       </c>
       <c r="D20">
-        <v>3780489.39</v>
+        <v>3494803.61</v>
       </c>
       <c r="E20">
-        <v>2591461.9900000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+        <v>2590496.53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1404,8 @@
         <v>569462</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1475,25 +1419,25 @@
         <v>7026888</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>3607826.86</v>
+        <v>3796823.28</v>
       </c>
       <c r="D23">
-        <v>3777698.75</v>
+        <v>3485573.28</v>
       </c>
       <c r="E23">
-        <v>2577372.46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+        <v>2576486.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1507,8 +1451,8 @@
         <v>569462</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,25 +1466,25 @@
         <v>6570299</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C26">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D26">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
       <c r="E26">
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1554,45 +1498,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28">
-        <v>3.18</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D28">
-        <v>8.1300000000000008</v>
+        <v>3.2</v>
       </c>
       <c r="E28">
         <v>11.48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C29">
-        <v>19.399999999999999</v>
+        <v>6.04</v>
       </c>
       <c r="D29">
-        <v>7.89</v>
+        <v>30.85</v>
       </c>
       <c r="E29">
-        <v>41.53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
+        <v>41.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1601,8 +1545,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1616,25 +1560,25 @@
         <v>418</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C32">
-        <v>75013.34</v>
+        <v>1131606.39</v>
       </c>
       <c r="D32">
-        <v>1206463.57</v>
+        <v>552570.71</v>
       </c>
       <c r="E32">
-        <v>408224.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+        <v>408083.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
@@ -1648,13 +1592,13 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C34">
-        <v>184823</v>
+        <v>6363829</v>
       </c>
       <c r="D34">
         <v>6653812</v>
@@ -1663,30 +1607,30 @@
         <v>5602501</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>6.73</v>
       </c>
       <c r="D35">
-        <v>9.6300000000000008</v>
+        <v>39.04</v>
       </c>
       <c r="E35">
-        <v>53.14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
+        <v>53.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1695,8 +1639,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>29</v>
       </c>
@@ -1710,25 +1654,25 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C38">
-        <v>70515.600000000006</v>
+        <v>1035143.71</v>
       </c>
       <c r="D38">
-        <v>1106056.1000000001</v>
+        <v>522564.81</v>
       </c>
       <c r="E38">
-        <v>392589.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
+        <v>392454.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1742,13 +1686,13 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C40">
-        <v>179694</v>
+        <v>6209424</v>
       </c>
       <c r="D40">
         <v>6653812</v>
@@ -1757,30 +1701,30 @@
         <v>5602501</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C41">
-        <v>64.400000000000006</v>
+        <v>18.6</v>
       </c>
       <c r="D41">
-        <v>24.34</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="E41">
-        <v>123.04</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
+        <v>123.54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C42">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1789,8 +1733,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
@@ -1804,25 +1748,25 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C44">
-        <v>21116.27</v>
+        <v>866615.86</v>
       </c>
       <c r="D44">
-        <v>932027.71</v>
+        <v>437711.3</v>
       </c>
       <c r="E44">
-        <v>314708.99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
+        <v>314657</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>25</v>
       </c>
@@ -1836,13 +1780,13 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C46">
-        <v>72913</v>
+        <v>6363829</v>
       </c>
       <c r="D46">
         <v>6653812</v>
@@ -1851,30 +1795,30 @@
         <v>5602501</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C47">
-        <v>70.06</v>
+        <v>20.92</v>
       </c>
       <c r="D47">
-        <v>30.27</v>
+        <v>128.07</v>
       </c>
       <c r="E47">
-        <v>162.41999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
+        <v>162.97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1883,8 +1827,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
@@ -1898,25 +1842,25 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C50">
-        <v>19778.7</v>
+        <v>795670.62</v>
       </c>
       <c r="D50">
-        <v>858295.61</v>
+        <v>418300.08</v>
       </c>
       <c r="E50">
-        <v>305125.33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
+        <v>305079.77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,13 +1874,13 @@
         <v>518</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C52">
-        <v>72913</v>
+        <v>6209424</v>
       </c>
       <c r="D52">
         <v>6653812</v>
@@ -1945,25 +1889,25 @@
         <v>5602501</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C53">
-        <v>228721.56</v>
+        <v>1391776.28</v>
       </c>
       <c r="D53">
-        <v>1466259.21</v>
+        <v>704654.6</v>
       </c>
       <c r="E53">
-        <v>505371.64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
+        <v>505158.89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>25</v>
       </c>
@@ -1977,13 +1921,13 @@
         <v>11420</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C55">
-        <v>718322</v>
+        <v>6363829</v>
       </c>
       <c r="D55">
         <v>6653812</v>
@@ -1992,25 +1936,25 @@
         <v>5602501</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C56">
-        <v>217285.6</v>
+        <v>1292321.3</v>
       </c>
       <c r="D56">
-        <v>1361340.01</v>
+        <v>658304.79</v>
       </c>
       <c r="E56">
-        <v>485212.41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
+        <v>484987.41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>25</v>
       </c>
@@ -2024,13 +1968,13 @@
         <v>9123</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C58">
-        <v>658289</v>
+        <v>6209424</v>
       </c>
       <c r="D58">
         <v>6653812</v>
@@ -2039,25 +1983,25 @@
         <v>5602501</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C59">
-        <v>21.96</v>
+        <v>12.45</v>
       </c>
       <c r="D59">
-        <v>10.88</v>
+        <v>12.06</v>
       </c>
       <c r="E59">
-        <v>6.41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>25</v>
       </c>
@@ -2071,8 +2015,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>29</v>
       </c>
@@ -2086,25 +2030,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C62">
-        <v>59.98</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="D62">
-        <v>89.31</v>
+        <v>54.48</v>
       </c>
       <c r="E62">
-        <v>39.07</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
+        <v>38.91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>25</v>
       </c>
@@ -2118,13 +2062,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C64">
-        <v>94.12</v>
+        <v>100</v>
       </c>
       <c r="D64">
         <v>100</v>
@@ -2133,15 +2077,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C65">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D65">
         <v>0.36</v>
@@ -2150,38 +2094,38 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C66">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="D66">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="E66">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C67">
+        <v>0.55</v>
+      </c>
+      <c r="D67">
         <v>0.47</v>
-      </c>
-      <c r="D67">
-        <v>0.55000000000000004</v>
       </c>
       <c r="E67">
         <v>0.53</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2191,19 +2135,19 @@
         <v>0.03</v>
       </c>
       <c r="D68">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E68">
         <v>0.02</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C69">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2212,16 +2156,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C70">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D70">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E70">
         <v>0.12</v>
@@ -2229,29 +2173,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
